--- a/新刊刊行予定2019.xlsx
+++ b/新刊刊行予定2019.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="306">
   <si>
     <t>刊行月</t>
     <rPh sb="0" eb="2">
@@ -2280,6 +2280,10 @@
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ナイスク</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3566,7 +3570,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="N3" sqref="N3"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomLeft" activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -4858,7 +4862,9 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="32"/>
-      <c r="S27" s="26"/>
+      <c r="S27" s="26" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="40">
       <c r="A28" s="137" t="s">

--- a/新刊刊行予定2019.xlsx
+++ b/新刊刊行予定2019.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="307">
   <si>
     <t>刊行月</t>
     <rPh sb="0" eb="2">
@@ -2284,6 +2284,16 @@
   </si>
   <si>
     <t>ナイスク</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>中断中</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3570,7 +3580,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="N3" sqref="N3"/>
-      <selection pane="bottomLeft" activeCell="S44" sqref="S44"/>
+      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -5176,7 +5186,7 @@
       <c r="Q38" s="33"/>
       <c r="R38" s="25"/>
       <c r="S38" s="33" t="s">
-        <v>109</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:19">

--- a/新刊刊行予定2019.xlsx
+++ b/新刊刊行予定2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="35800" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018年10月以降刊行予定" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="306">
   <si>
     <t>刊行月</t>
     <rPh sb="0" eb="2">
@@ -2284,16 +2284,6 @@
   </si>
   <si>
     <t>ナイスク</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>中断中</t>
-    <rPh sb="0" eb="2">
-      <t>チュウダン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3577,10 +3567,10 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A4" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="N3" sqref="N3"/>
-      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
+      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -3607,10 +3597,10 @@
     <col min="20" max="16384" width="12.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23">
+    <row r="1" spans="1:19" ht="33">
       <c r="C1" s="144"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="29">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3667,7 +3657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="29">
       <c r="A3" s="160" t="s">
         <v>34</v>
       </c>
@@ -3690,7 +3680,7 @@
       <c r="R3" s="170"/>
       <c r="S3" s="166"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="29">
       <c r="A4" s="18" t="s">
         <v>65</v>
       </c>
@@ -3743,7 +3733,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="29">
       <c r="A5" s="18" t="s">
         <v>82</v>
       </c>
@@ -3800,7 +3790,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
@@ -3853,7 +3843,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="29">
       <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
@@ -3910,7 +3900,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="29">
       <c r="A8" s="18" t="s">
         <v>184</v>
       </c>
@@ -3963,7 +3953,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="29">
       <c r="A9" s="18" t="s">
         <v>68</v>
       </c>
@@ -4012,7 +4002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="29">
       <c r="A10" s="18" t="s">
         <v>188</v>
       </c>
@@ -4069,7 +4059,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="18" t="s">
         <v>188</v>
       </c>
@@ -4120,7 +4110,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="29">
       <c r="A12" s="18" t="s">
         <v>188</v>
       </c>
@@ -4165,7 +4155,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="29">
       <c r="A13" s="18" t="s">
         <v>190</v>
       </c>
@@ -4220,7 +4210,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="29">
       <c r="A14" s="18" t="s">
         <v>190</v>
       </c>
@@ -4275,7 +4265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="29">
       <c r="A15" s="18" t="s">
         <v>267</v>
       </c>
@@ -4320,7 +4310,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="29">
       <c r="A16" s="18" t="s">
         <v>267</v>
       </c>
@@ -4371,7 +4361,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="18" t="s">
         <v>284</v>
       </c>
@@ -4426,7 +4416,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="29">
       <c r="A18" s="18" t="s">
         <v>32</v>
       </c>
@@ -4463,7 +4453,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="29">
       <c r="A19" s="18" t="s">
         <v>214</v>
       </c>
@@ -4514,7 +4504,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="29">
       <c r="A20" s="18" t="s">
         <v>113</v>
       </c>
@@ -4563,7 +4553,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" ht="29">
       <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
@@ -4612,7 +4602,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" ht="29">
       <c r="A22" s="18" t="s">
         <v>255</v>
       </c>
@@ -4661,7 +4651,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" ht="29">
       <c r="A23" s="18" t="s">
         <v>255</v>
       </c>
@@ -4696,7 +4686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" ht="29">
       <c r="A24" s="18" t="s">
         <v>255</v>
       </c>
@@ -4729,7 +4719,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="29">
       <c r="A25" s="159" t="s">
         <v>271</v>
       </c>
@@ -4778,7 +4768,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="29">
       <c r="A26" s="18" t="s">
         <v>273</v>
       </c>
@@ -4827,7 +4817,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="29">
       <c r="A27" s="138" t="s">
         <v>291</v>
       </c>
@@ -4876,7 +4866,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="40">
+    <row r="28" spans="1:19" ht="58">
       <c r="A28" s="137" t="s">
         <v>275</v>
       </c>
@@ -4923,7 +4913,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="29">
       <c r="A29" s="18" t="s">
         <v>275</v>
       </c>
@@ -4974,7 +4964,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="171" t="s">
         <v>296</v>
       </c>
@@ -5023,11 +5013,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" ht="29">
       <c r="A32" s="26"/>
       <c r="B32" s="138"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="26"/>
       <c r="B33" s="138"/>
       <c r="C33" s="26" t="s">
@@ -5050,7 +5040,7 @@
       <c r="R33" s="32"/>
       <c r="S33" s="26"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" ht="29">
       <c r="A34" s="26"/>
       <c r="B34" s="138"/>
       <c r="C34" s="26" t="s">
@@ -5079,7 +5069,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" ht="29">
       <c r="A35" s="26"/>
       <c r="B35" s="138"/>
       <c r="C35" s="26" t="s">
@@ -5102,7 +5092,7 @@
       <c r="R35" s="32"/>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" ht="29">
       <c r="A36" s="26"/>
       <c r="B36" s="138"/>
       <c r="C36" s="26" t="s">
@@ -5125,7 +5115,7 @@
       <c r="R36" s="32"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="26"/>
       <c r="B37" s="138"/>
       <c r="C37" s="26"/>
@@ -5146,7 +5136,7 @@
       <c r="R37" s="32"/>
       <c r="S37" s="26"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="29">
       <c r="A38" s="26"/>
       <c r="B38" s="138"/>
       <c r="C38" s="33" t="s">
@@ -5185,11 +5175,9 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="33"/>
       <c r="R38" s="25"/>
-      <c r="S38" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="S38" s="33"/>
+    </row>
+    <row r="39" spans="1:19" ht="29">
       <c r="A39" s="26"/>
       <c r="B39" s="138"/>
       <c r="C39" s="33"/>
@@ -5210,7 +5198,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" ht="29">
       <c r="A40" s="26"/>
       <c r="B40" s="138"/>
       <c r="C40" s="26" t="s">
@@ -5233,7 +5221,7 @@
       <c r="R40" s="32"/>
       <c r="S40" s="26"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" ht="29">
       <c r="A41" s="26"/>
       <c r="B41" s="138"/>
       <c r="C41" s="26" t="s">
@@ -5256,7 +5244,7 @@
       <c r="R41" s="32"/>
       <c r="S41" s="26"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" ht="29">
       <c r="A42" s="26"/>
       <c r="B42" s="138"/>
       <c r="C42" s="26" t="s">
@@ -5279,7 +5267,7 @@
       <c r="R42" s="32"/>
       <c r="S42" s="26"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" ht="29">
       <c r="A43" s="26"/>
       <c r="B43" s="138"/>
       <c r="C43" s="26" t="s">
@@ -5302,7 +5290,7 @@
       <c r="R43" s="32"/>
       <c r="S43" s="26"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" ht="29">
       <c r="A44" s="26"/>
       <c r="B44" s="138"/>
       <c r="C44" s="26" t="s">
@@ -5325,7 +5313,7 @@
       <c r="R44" s="32"/>
       <c r="S44" s="26"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" ht="29">
       <c r="A45" s="26"/>
       <c r="B45" s="138"/>
       <c r="C45" s="26" t="s">
@@ -5348,7 +5336,7 @@
       <c r="R45" s="32"/>
       <c r="S45" s="26"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" ht="29">
       <c r="A46" s="26"/>
       <c r="B46" s="138"/>
       <c r="C46" s="26" t="s">
@@ -5371,7 +5359,7 @@
       <c r="R46" s="32"/>
       <c r="S46" s="26"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="29">
       <c r="A47" s="26"/>
       <c r="B47" s="138"/>
       <c r="C47" s="26" t="s">
@@ -5394,7 +5382,7 @@
       <c r="R47" s="32"/>
       <c r="S47" s="26"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="29">
       <c r="A48" s="194"/>
       <c r="B48" s="195"/>
       <c r="C48" s="194"/>
@@ -5415,7 +5403,7 @@
       <c r="R48" s="203"/>
       <c r="S48" s="194"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" ht="29">
       <c r="A49" s="194"/>
       <c r="B49" s="195"/>
       <c r="C49" s="194"/>
@@ -5596,7 +5584,7 @@
     <col min="20" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="29">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="29">
       <c r="A2" s="55" t="s">
         <v>34</v>
       </c>
@@ -5678,7 +5666,7 @@
       <c r="R2" s="57"/>
       <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="29">
       <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
@@ -5721,7 +5709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="29">
       <c r="A4" s="55" t="s">
         <v>68</v>
       </c>
@@ -5768,7 +5756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="29">
       <c r="A5" s="55" t="s">
         <v>207</v>
       </c>
@@ -5823,7 +5811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="55" t="s">
         <v>207</v>
       </c>
@@ -5868,7 +5856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="29">
       <c r="A7" s="55" t="s">
         <v>21</v>
       </c>
@@ -5921,7 +5909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="29">
       <c r="A8" s="55" t="s">
         <v>77</v>
       </c>
@@ -5960,7 +5948,7 @@
       </c>
       <c r="S8" s="74"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="29">
       <c r="A9" s="55" t="s">
         <v>77</v>
       </c>
@@ -6003,7 +5991,7 @@
       </c>
       <c r="S9" s="74"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="29">
       <c r="A10" s="55" t="s">
         <v>31</v>
       </c>
@@ -6052,7 +6040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="55" t="s">
         <v>78</v>
       </c>
@@ -6105,7 +6093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="29">
       <c r="A12" s="55" t="s">
         <v>78</v>
       </c>
@@ -6158,7 +6146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="29">
       <c r="A13" s="55" t="s">
         <v>32</v>
       </c>
@@ -6211,7 +6199,7 @@
       </c>
       <c r="S13" s="74"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="29">
       <c r="A14" s="55" t="s">
         <v>212</v>
       </c>
@@ -6254,7 +6242,7 @@
       </c>
       <c r="S14" s="74"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="29">
       <c r="A15" s="55" t="s">
         <v>33</v>
       </c>
@@ -6299,7 +6287,7 @@
       </c>
       <c r="S15" s="74"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="29">
       <c r="A16" s="55" t="s">
         <v>214</v>
       </c>
@@ -6350,7 +6338,7 @@
       </c>
       <c r="S16" s="74"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="29">
       <c r="A17" s="55" t="s">
         <v>37</v>
       </c>
@@ -6387,7 +6375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" ht="29">
       <c r="A18" s="55" t="s">
         <v>38</v>
       </c>
@@ -6436,7 +6424,7 @@
       </c>
       <c r="S18" s="74"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" ht="29">
       <c r="A19" s="55" t="s">
         <v>48</v>
       </c>
@@ -6461,7 +6449,7 @@
       <c r="R19" s="64"/>
       <c r="S19" s="74"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="29">
       <c r="A20" s="18" t="s">
         <v>65</v>
       </c>
@@ -6515,7 +6503,7 @@
       </c>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" ht="29">
       <c r="A21" s="18" t="s">
         <v>82</v>
       </c>
@@ -6573,7 +6561,7 @@
       </c>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" ht="29">
       <c r="A22" s="18" t="s">
         <v>82</v>
       </c>
@@ -6627,7 +6615,7 @@
       </c>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" ht="29">
       <c r="A23" s="18" t="s">
         <v>67</v>
       </c>
@@ -6685,7 +6673,7 @@
       </c>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" ht="29">
       <c r="A24" s="18" t="s">
         <v>184</v>
       </c>
@@ -6739,7 +6727,7 @@
       </c>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" ht="29">
       <c r="A25" s="18" t="s">
         <v>68</v>
       </c>
@@ -6789,7 +6777,7 @@
       </c>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" ht="29">
       <c r="A26" s="18" t="s">
         <v>188</v>
       </c>
@@ -6847,7 +6835,7 @@
       </c>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" ht="29">
       <c r="A27" s="18" t="s">
         <v>188</v>
       </c>
@@ -6899,7 +6887,7 @@
       </c>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" ht="29">
       <c r="A28" s="18" t="s">
         <v>188</v>
       </c>
@@ -6947,7 +6935,7 @@
       </c>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" ht="29">
       <c r="A29" s="18" t="s">
         <v>190</v>
       </c>
@@ -7003,7 +6991,7 @@
       </c>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" ht="29">
       <c r="A30" s="18" t="s">
         <v>190</v>
       </c>
@@ -7059,7 +7047,7 @@
       </c>
       <c r="T30" s="7"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" ht="29">
       <c r="A31" s="18" t="s">
         <v>267</v>
       </c>
@@ -7105,7 +7093,7 @@
       </c>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" ht="29">
       <c r="A32" s="18" t="s">
         <v>267</v>
       </c>
@@ -7157,7 +7145,7 @@
       </c>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" ht="29">
       <c r="A33" s="18" t="s">
         <v>284</v>
       </c>
@@ -7213,7 +7201,7 @@
       </c>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="18" t="s">
         <v>32</v>
       </c>
@@ -7251,7 +7239,7 @@
       </c>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="18" t="s">
         <v>214</v>
       </c>
@@ -7303,7 +7291,7 @@
       </c>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" ht="29">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -7353,7 +7341,7 @@
       </c>
       <c r="T36" s="7"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" ht="29">
       <c r="A37" s="18" t="s">
         <v>113</v>
       </c>
@@ -7403,7 +7391,7 @@
       </c>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" ht="29">
       <c r="A38" s="18" t="s">
         <v>255</v>
       </c>
@@ -7453,7 +7441,7 @@
       </c>
       <c r="T38" s="7"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" ht="29">
       <c r="A39" s="18" t="s">
         <v>255</v>
       </c>
@@ -7489,7 +7477,7 @@
       </c>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" ht="29">
       <c r="A40" s="18" t="s">
         <v>255</v>
       </c>
@@ -7523,7 +7511,7 @@
       </c>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" ht="29">
       <c r="A41" s="159" t="s">
         <v>271</v>
       </c>
@@ -7573,7 +7561,7 @@
       </c>
       <c r="T41" s="7"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" ht="29">
       <c r="A42" s="18" t="s">
         <v>273</v>
       </c>
@@ -7623,7 +7611,7 @@
       </c>
       <c r="T42" s="7"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" ht="29">
       <c r="A43" s="138" t="s">
         <v>291</v>
       </c>
@@ -7671,7 +7659,7 @@
       <c r="S43" s="26"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" ht="43">
+    <row r="44" spans="1:20" ht="58">
       <c r="A44" s="137" t="s">
         <v>275</v>
       </c>
@@ -7719,7 +7707,7 @@
       </c>
       <c r="T44" s="7"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" ht="29">
       <c r="A45" s="18" t="s">
         <v>275</v>
       </c>
@@ -7771,7 +7759,7 @@
       </c>
       <c r="T45" s="7"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" ht="29">
       <c r="A46" s="171" t="s">
         <v>275</v>
       </c>
@@ -7821,7 +7809,7 @@
       </c>
       <c r="T46" s="7"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" ht="29">
       <c r="A47" s="171"/>
       <c r="B47" s="172"/>
       <c r="C47" s="173"/>
@@ -7843,7 +7831,7 @@
       <c r="S47" s="181"/>
       <c r="T47" s="7"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="26"/>
       <c r="B48" s="138"/>
       <c r="C48" s="26" t="s">
@@ -7867,7 +7855,7 @@
       <c r="S48" s="26"/>
       <c r="T48" s="7"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" ht="29">
       <c r="A49" s="26"/>
       <c r="B49" s="138"/>
       <c r="C49" s="26" t="s">
@@ -7893,7 +7881,7 @@
       </c>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" ht="29">
       <c r="A50" s="26"/>
       <c r="B50" s="138"/>
       <c r="C50" s="26" t="s">
@@ -7917,7 +7905,7 @@
       <c r="S50" s="26"/>
       <c r="T50" s="7"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" ht="29">
       <c r="A51" s="26"/>
       <c r="B51" s="138"/>
       <c r="C51" s="26" t="s">
@@ -7941,7 +7929,7 @@
       <c r="S51" s="26"/>
       <c r="T51" s="7"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" ht="29">
       <c r="A52" s="26"/>
       <c r="B52" s="138"/>
       <c r="C52" s="37"/>
@@ -7963,7 +7951,7 @@
       <c r="S52" s="26"/>
       <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" ht="29">
       <c r="A53" s="26"/>
       <c r="B53" s="138"/>
       <c r="C53" s="37"/>
@@ -7985,7 +7973,7 @@
       <c r="S53" s="26"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" ht="29">
       <c r="A54" s="26"/>
       <c r="B54" s="138"/>
       <c r="C54" s="33" t="s">
@@ -8029,7 +8017,7 @@
       </c>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" ht="29">
       <c r="A55" s="26"/>
       <c r="B55" s="138"/>
       <c r="C55" s="26"/>
@@ -8051,7 +8039,7 @@
       <c r="S55" s="26"/>
       <c r="T55" s="7"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" ht="29">
       <c r="A56" s="26"/>
       <c r="B56" s="138"/>
       <c r="C56" s="26" t="s">
@@ -8075,7 +8063,7 @@
       <c r="S56" s="26"/>
       <c r="T56" s="7"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" ht="29">
       <c r="A57" s="26"/>
       <c r="B57" s="138"/>
       <c r="C57" s="26" t="s">
@@ -8099,7 +8087,7 @@
       <c r="S57" s="26"/>
       <c r="T57" s="7"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" ht="29">
       <c r="A58" s="26"/>
       <c r="B58" s="138"/>
       <c r="C58" s="26" t="s">
@@ -8123,7 +8111,7 @@
       <c r="S58" s="26"/>
       <c r="T58" s="7"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" ht="29">
       <c r="A59" s="26"/>
       <c r="B59" s="138"/>
       <c r="C59" s="26" t="s">
@@ -8147,7 +8135,7 @@
       <c r="S59" s="26"/>
       <c r="T59" s="7"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" ht="29">
       <c r="A60" s="26"/>
       <c r="B60" s="138"/>
       <c r="C60" s="26" t="s">
@@ -8171,7 +8159,7 @@
       <c r="S60" s="26"/>
       <c r="T60" s="7"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" ht="29">
       <c r="A61" s="26"/>
       <c r="B61" s="138"/>
       <c r="C61" s="26" t="s">
@@ -8195,7 +8183,7 @@
       <c r="S61" s="26"/>
       <c r="T61" s="7"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" ht="29">
       <c r="A62" s="26"/>
       <c r="B62" s="138"/>
       <c r="C62" s="26" t="s">
@@ -8219,7 +8207,7 @@
       <c r="S62" s="26"/>
       <c r="T62" s="7"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" ht="29">
       <c r="A63" s="26"/>
       <c r="B63" s="138"/>
       <c r="C63" s="26" t="s">
@@ -8243,7 +8231,7 @@
       <c r="S63" s="26"/>
       <c r="T63" s="7"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" ht="29">
       <c r="A64" s="26"/>
       <c r="B64" s="138"/>
       <c r="C64" s="26"/>
@@ -8447,7 +8435,7 @@
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" ht="29">
       <c r="A73" s="63"/>
       <c r="B73" s="141"/>
       <c r="C73" s="205"/>
@@ -8468,7 +8456,7 @@
       <c r="R73" s="81"/>
       <c r="S73" s="63"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" ht="29">
       <c r="A74" s="63"/>
       <c r="B74" s="141"/>
       <c r="C74" s="205"/>
